--- a/static/stock_reports/epa-alberta-fish-stocking-report-2023.xlsx
+++ b/static/stock_reports/epa-alberta-fish-stocking-report-2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3115" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3115" uniqueCount="601">
   <si>
     <t xml:space="preserve">Waterbody Official Name</t>
   </si>
@@ -645,9 +645,6 @@
   </si>
   <si>
     <t xml:space="preserve">SW11-19-9-W5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WSCT</t>
   </si>
   <si>
     <t xml:space="preserve">Allison Creek</t>
@@ -1895,7 +1892,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="d/mmm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -2012,23 +2009,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFD8DC"/>
-          <bgColor rgb="FF29353B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2043,7 +2023,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:to>
@@ -2055,7 +2035,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="701280"/>
-          <a:ext cx="8782200" cy="360"/>
+          <a:ext cx="8780760" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2101,8 +2081,8 @@
   </sheetPr>
   <dimension ref="A1:I552"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A388" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B350" activeCellId="0" sqref="B350"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A222" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I222" activeCellId="0" sqref="I:I"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2117,7 +2097,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="18.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="4.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="12" style="1" width="8.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="1" width="12.83"/>
   </cols>
@@ -3510,7 +3490,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
@@ -7997,7 +7977,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
         <v>194</v>
       </c>
@@ -8084,7 +8064,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
         <v>201</v>
       </c>
@@ -8173,10 +8153,10 @@
         <v>207</v>
       </c>
       <c r="D225" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E225" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>40</v>
@@ -8199,10 +8179,10 @@
         <v>207</v>
       </c>
       <c r="D226" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E226" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>40</v>
@@ -8219,10 +8199,10 @@
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>22</v>
@@ -8245,10 +8225,10 @@
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>22</v>
@@ -8271,10 +8251,10 @@
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>11</v>
@@ -8297,10 +8277,10 @@
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>11</v>
@@ -8323,16 +8303,16 @@
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="D231" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E231" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>40</v>
@@ -8349,16 +8329,16 @@
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="D232" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E232" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>40</v>
@@ -8375,10 +8355,10 @@
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>11</v>
@@ -8401,10 +8381,10 @@
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>11</v>
@@ -8427,10 +8407,10 @@
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>11</v>
@@ -8453,10 +8433,10 @@
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>11</v>
@@ -8479,10 +8459,10 @@
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>17</v>
@@ -8505,10 +8485,10 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>22</v>
@@ -8531,10 +8511,10 @@
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>11</v>
@@ -8557,10 +8537,10 @@
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>11</v>
@@ -8583,10 +8563,10 @@
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>11</v>
@@ -8609,10 +8589,10 @@
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>11</v>
@@ -8635,10 +8615,10 @@
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>22</v>
@@ -8661,10 +8641,10 @@
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>11</v>
@@ -8687,10 +8667,10 @@
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>11</v>
@@ -8713,10 +8693,10 @@
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>11</v>
@@ -8739,13 +8719,13 @@
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="C247" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>11</v>
@@ -8768,13 +8748,13 @@
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="C248" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>11</v>
@@ -8797,13 +8777,13 @@
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="C249" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>11</v>
@@ -8826,13 +8806,13 @@
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="C250" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>11</v>
@@ -8855,10 +8835,10 @@
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>11</v>
@@ -8881,10 +8861,10 @@
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C252" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>11</v>
@@ -8907,10 +8887,10 @@
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>26</v>
@@ -8933,13 +8913,13 @@
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B254" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="C254" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>22</v>
@@ -8962,13 +8942,13 @@
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="C255" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>36</v>
@@ -8991,13 +8971,13 @@
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="C256" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>11</v>
@@ -9020,13 +9000,13 @@
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="C257" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>11</v>
@@ -9049,10 +9029,10 @@
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>17</v>
@@ -9075,10 +9055,10 @@
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>17</v>
@@ -9101,10 +9081,10 @@
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>22</v>
@@ -9127,10 +9107,10 @@
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>36</v>
@@ -9153,10 +9133,10 @@
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>11</v>
@@ -9179,10 +9159,10 @@
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>11</v>
@@ -9205,10 +9185,10 @@
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C264" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>11</v>
@@ -9231,10 +9211,10 @@
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C265" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>11</v>
@@ -9257,10 +9237,10 @@
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C266" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>17</v>
@@ -9283,10 +9263,10 @@
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>11</v>
@@ -9309,10 +9289,10 @@
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>11</v>
@@ -9335,10 +9315,10 @@
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>11</v>
@@ -9361,10 +9341,10 @@
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>11</v>
@@ -9387,10 +9367,10 @@
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C271" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>11</v>
@@ -9413,13 +9393,13 @@
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="C272" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>22</v>
@@ -9442,13 +9422,13 @@
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B273" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="C273" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>11</v>
@@ -9471,13 +9451,13 @@
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B274" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="C274" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>11</v>
@@ -9500,10 +9480,10 @@
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>11</v>
@@ -9526,10 +9506,10 @@
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>11</v>
@@ -9552,10 +9532,10 @@
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>11</v>
@@ -9578,13 +9558,13 @@
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B278" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="C278" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>11</v>
@@ -9607,13 +9587,13 @@
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B279" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>26</v>
@@ -9636,13 +9616,13 @@
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B280" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>26</v>
@@ -9665,13 +9645,13 @@
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="C281" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>17</v>
@@ -9694,13 +9674,13 @@
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="C282" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>11</v>
@@ -9723,13 +9703,13 @@
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B283" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>26</v>
@@ -9752,13 +9732,13 @@
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B284" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>11</v>
@@ -9779,15 +9759,15 @@
         <v>45047</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C285" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>11</v>
@@ -9810,13 +9790,13 @@
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C286" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>11</v>
@@ -9839,13 +9819,13 @@
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>11</v>
@@ -9868,13 +9848,13 @@
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B288" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C288" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>11</v>
@@ -9897,13 +9877,13 @@
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B289" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C289" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>11</v>
@@ -9926,13 +9906,13 @@
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B290" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C290" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>17</v>
@@ -9955,13 +9935,13 @@
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B291" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C291" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>11</v>
@@ -9984,13 +9964,13 @@
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B292" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C292" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>26</v>
@@ -10013,13 +9993,13 @@
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B293" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>22</v>
@@ -10042,13 +10022,13 @@
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B294" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C294" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>36</v>
@@ -10071,13 +10051,13 @@
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B295" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C295" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>11</v>
@@ -10100,13 +10080,13 @@
     </row>
     <row r="296" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B296" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C296" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>11</v>
@@ -10129,13 +10109,13 @@
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B297" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C297" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>22</v>
@@ -10158,13 +10138,13 @@
     </row>
     <row r="298" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B298" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C298" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>22</v>
@@ -10187,13 +10167,13 @@
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>11</v>
@@ -10216,13 +10196,13 @@
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B300" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C300" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>22</v>
@@ -10245,13 +10225,13 @@
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B301" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C301" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>11</v>
@@ -10274,13 +10254,13 @@
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B302" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C302" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>11</v>
@@ -10303,13 +10283,13 @@
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B303" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C303" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>11</v>
@@ -10332,13 +10312,13 @@
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B304" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C304" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>11</v>
@@ -10361,13 +10341,13 @@
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B305" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C305" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>11</v>
@@ -10390,13 +10370,13 @@
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B306" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C306" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>11</v>
@@ -10419,13 +10399,13 @@
     </row>
     <row r="307" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B307" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C307" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>11</v>
@@ -10448,13 +10428,13 @@
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B308" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C308" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>11</v>
@@ -10477,13 +10457,13 @@
     </row>
     <row r="309" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B309" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C309" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>11</v>
@@ -10506,13 +10486,13 @@
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>11</v>
@@ -10535,13 +10515,13 @@
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B311" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C311" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>11</v>
@@ -10564,13 +10544,13 @@
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B312" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C312" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>26</v>
@@ -10593,13 +10573,13 @@
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B313" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C313" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>26</v>
@@ -10622,13 +10602,13 @@
     </row>
     <row r="314" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B314" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C314" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>11</v>
@@ -10651,13 +10631,13 @@
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>11</v>
@@ -10680,13 +10660,13 @@
     </row>
     <row r="316" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B316" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C316" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>11</v>
@@ -10709,13 +10689,13 @@
     </row>
     <row r="317" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B317" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C317" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>36</v>
@@ -10738,13 +10718,13 @@
     </row>
     <row r="318" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B318" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C318" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>11</v>
@@ -10767,13 +10747,13 @@
     </row>
     <row r="319" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B319" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C319" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>11</v>
@@ -10796,13 +10776,13 @@
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>22</v>
@@ -10825,13 +10805,13 @@
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>36</v>
@@ -10854,13 +10834,13 @@
     </row>
     <row r="322" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B322" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>11</v>
@@ -10883,13 +10863,13 @@
     </row>
     <row r="323" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B323" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>11</v>
@@ -10912,13 +10892,13 @@
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>11</v>
@@ -10941,13 +10921,13 @@
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C325" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>11</v>
@@ -10970,13 +10950,13 @@
     </row>
     <row r="326" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B326" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C326" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>11</v>
@@ -10999,13 +10979,13 @@
     </row>
     <row r="327" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B327" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C327" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>26</v>
@@ -11028,13 +11008,13 @@
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B328" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C328" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>11</v>
@@ -11057,13 +11037,13 @@
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B329" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C329" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>11</v>
@@ -11086,13 +11066,13 @@
     </row>
     <row r="330" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B330" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C330" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>11</v>
@@ -11115,13 +11095,13 @@
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>11</v>
@@ -11144,13 +11124,13 @@
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C332" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>11</v>
@@ -11173,13 +11153,13 @@
     </row>
     <row r="333" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B333" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C333" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>11</v>
@@ -11202,13 +11182,13 @@
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B334" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C334" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>11</v>
@@ -11231,13 +11211,13 @@
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B335" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C335" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>11</v>
@@ -11260,13 +11240,13 @@
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B336" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C336" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>36</v>
@@ -11289,13 +11269,13 @@
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B337" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C337" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>11</v>
@@ -11318,13 +11298,13 @@
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B338" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C338" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>22</v>
@@ -11347,13 +11327,13 @@
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B339" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C339" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>22</v>
@@ -11376,13 +11356,13 @@
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B340" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C340" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>11</v>
@@ -11405,13 +11385,13 @@
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B341" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C341" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>11</v>
@@ -11434,13 +11414,13 @@
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B342" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C342" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>22</v>
@@ -11463,13 +11443,13 @@
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B343" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C343" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>11</v>
@@ -11492,13 +11472,13 @@
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B344" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C344" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>22</v>
@@ -11521,13 +11501,13 @@
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B345" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C345" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>11</v>
@@ -11550,13 +11530,13 @@
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B346" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C346" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>11</v>
@@ -11579,13 +11559,13 @@
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B347" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C347" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>11</v>
@@ -11608,13 +11588,13 @@
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B348" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C348" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>11</v>
@@ -11637,13 +11617,13 @@
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B349" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C349" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>11</v>
@@ -11666,13 +11646,13 @@
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B350" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C350" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>11</v>
@@ -11695,13 +11675,13 @@
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B351" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C351" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>36</v>
@@ -11724,13 +11704,13 @@
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B352" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C352" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>11</v>
@@ -11753,13 +11733,13 @@
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B353" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C353" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>11</v>
@@ -11782,13 +11762,13 @@
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B354" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C354" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>17</v>
@@ -11811,13 +11791,13 @@
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B355" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C355" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>22</v>
@@ -11840,13 +11820,13 @@
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B356" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C356" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="C356" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>11</v>
@@ -11869,13 +11849,13 @@
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B357" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C357" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>22</v>
@@ -11898,13 +11878,13 @@
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B358" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C358" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>11</v>
@@ -11927,13 +11907,13 @@
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B359" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C359" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>11</v>
@@ -11956,13 +11936,13 @@
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B360" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C360" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>11</v>
@@ -11985,13 +11965,13 @@
     </row>
     <row r="361" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B361" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C361" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>11</v>
@@ -12014,13 +11994,13 @@
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B362" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C362" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="C362" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>11</v>
@@ -12043,13 +12023,13 @@
     </row>
     <row r="363" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B363" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C363" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>11</v>
@@ -12072,13 +12052,13 @@
     </row>
     <row r="364" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B364" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C364" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="C364" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>11</v>
@@ -12101,13 +12081,13 @@
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B365" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C365" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>11</v>
@@ -12130,13 +12110,13 @@
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B366" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C366" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>11</v>
@@ -12159,13 +12139,13 @@
     </row>
     <row r="367" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B367" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C367" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="C367" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>11</v>
@@ -12188,13 +12168,13 @@
     </row>
     <row r="368" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B368" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C368" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="C368" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>11</v>
@@ -12217,13 +12197,13 @@
     </row>
     <row r="369" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B369" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C369" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>11</v>
@@ -12246,13 +12226,13 @@
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D370" s="1" t="s">
         <v>11</v>
@@ -12275,13 +12255,13 @@
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D371" s="1" t="s">
         <v>11</v>
@@ -12304,13 +12284,13 @@
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B372" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C372" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>11</v>
@@ -12333,13 +12313,13 @@
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B373" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C373" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="D373" s="1" t="s">
         <v>11</v>
@@ -12362,13 +12342,13 @@
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B374" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C374" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="D374" s="1" t="s">
         <v>11</v>
@@ -12391,13 +12371,13 @@
     </row>
     <row r="375" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B375" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C375" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>11</v>
@@ -12420,13 +12400,13 @@
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D376" s="1" t="s">
         <v>11</v>
@@ -12449,13 +12429,13 @@
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B377" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C377" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="C377" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="D377" s="1" t="s">
         <v>11</v>
@@ -12478,13 +12458,13 @@
     </row>
     <row r="378" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B378" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C378" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>11</v>
@@ -12507,13 +12487,13 @@
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>11</v>
@@ -12536,13 +12516,13 @@
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B380" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C380" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="C380" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>17</v>
@@ -12565,13 +12545,13 @@
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B381" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C381" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="C381" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>36</v>
@@ -12594,13 +12574,13 @@
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B382" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C382" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="C382" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>11</v>
@@ -12623,13 +12603,13 @@
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B383" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C383" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>11</v>
@@ -12652,13 +12632,13 @@
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B384" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C384" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>11</v>
@@ -12681,13 +12661,13 @@
     </row>
     <row r="385" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B385" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C385" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="C385" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="D385" s="1" t="s">
         <v>36</v>
@@ -12710,13 +12690,13 @@
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D386" s="1" t="s">
         <v>11</v>
@@ -12739,13 +12719,13 @@
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D387" s="1" t="s">
         <v>11</v>
@@ -12768,13 +12748,13 @@
     </row>
     <row r="388" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B388" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C388" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="D388" s="1" t="s">
         <v>11</v>
@@ -12797,13 +12777,13 @@
     </row>
     <row r="389" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B389" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C389" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="D389" s="1" t="s">
         <v>11</v>
@@ -12826,13 +12806,13 @@
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B390" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C390" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="C390" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="D390" s="1" t="s">
         <v>11</v>
@@ -12855,13 +12835,13 @@
     </row>
     <row r="391" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B391" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C391" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="C391" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="D391" s="1" t="s">
         <v>11</v>
@@ -12884,13 +12864,13 @@
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B392" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C392" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="C392" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="D392" s="1" t="s">
         <v>22</v>
@@ -12913,13 +12893,13 @@
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B393" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C393" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="D393" s="1" t="s">
         <v>11</v>
@@ -12942,13 +12922,13 @@
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B394" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C394" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="D394" s="1" t="s">
         <v>11</v>
@@ -12971,13 +12951,13 @@
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B395" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C395" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="D395" s="1" t="s">
         <v>17</v>
@@ -13000,13 +12980,13 @@
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B396" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C396" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="C396" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>11</v>
@@ -13029,13 +13009,13 @@
     </row>
     <row r="397" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B397" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C397" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="C397" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>11</v>
@@ -13058,13 +13038,13 @@
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D398" s="1" t="s">
         <v>17</v>
@@ -13087,13 +13067,13 @@
     </row>
     <row r="399" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B399" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C399" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="C399" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="D399" s="1" t="s">
         <v>11</v>
@@ -13116,13 +13096,13 @@
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B400" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C400" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="C400" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="D400" s="1" t="s">
         <v>22</v>
@@ -13145,13 +13125,13 @@
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B401" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C401" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="C401" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="D401" s="1" t="s">
         <v>36</v>
@@ -13174,13 +13154,13 @@
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B402" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C402" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="C402" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="D402" s="1" t="s">
         <v>11</v>
@@ -13203,13 +13183,13 @@
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B403" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C403" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="C403" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="D403" s="1" t="s">
         <v>11</v>
@@ -13232,13 +13212,13 @@
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B404" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C404" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="C404" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="D404" s="1" t="s">
         <v>26</v>
@@ -13261,13 +13241,13 @@
     </row>
     <row r="405" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B405" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C405" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="C405" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="D405" s="1" t="s">
         <v>22</v>
@@ -13290,13 +13270,13 @@
     </row>
     <row r="406" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B406" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C406" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="C406" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="D406" s="1" t="s">
         <v>11</v>
@@ -13319,13 +13299,13 @@
     </row>
     <row r="407" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B407" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C407" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="C407" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="D407" s="1" t="s">
         <v>11</v>
@@ -13348,13 +13328,13 @@
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D408" s="1" t="s">
         <v>17</v>
@@ -13377,13 +13357,13 @@
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B409" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C409" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C409" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="D409" s="1" t="s">
         <v>11</v>
@@ -13406,13 +13386,13 @@
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B410" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C410" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="D410" s="1" t="s">
         <v>11</v>
@@ -13435,13 +13415,13 @@
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B411" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C411" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="C411" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="D411" s="1" t="s">
         <v>11</v>
@@ -13464,13 +13444,13 @@
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B412" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C412" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="C412" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="D412" s="1" t="s">
         <v>11</v>
@@ -13493,13 +13473,13 @@
     </row>
     <row r="413" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B413" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C413" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="C413" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="D413" s="1" t="s">
         <v>17</v>
@@ -13522,13 +13502,13 @@
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D414" s="1" t="s">
         <v>11</v>
@@ -13551,13 +13531,13 @@
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B415" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C415" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="C415" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="D415" s="1" t="s">
         <v>11</v>
@@ -13580,13 +13560,13 @@
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B416" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C416" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="C416" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="D416" s="1" t="s">
         <v>11</v>
@@ -13609,13 +13589,13 @@
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B417" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C417" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="C417" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="D417" s="1" t="s">
         <v>11</v>
@@ -13638,13 +13618,13 @@
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B418" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C418" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="C418" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="D418" s="1" t="s">
         <v>11</v>
@@ -13667,13 +13647,13 @@
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B419" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C419" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="C419" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="D419" s="1" t="s">
         <v>11</v>
@@ -13696,13 +13676,13 @@
     </row>
     <row r="420" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B420" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C420" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="C420" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="D420" s="1" t="s">
         <v>22</v>
@@ -13725,13 +13705,13 @@
     </row>
     <row r="421" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B421" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C421" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="C421" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="D421" s="1" t="s">
         <v>11</v>
@@ -13754,13 +13734,13 @@
     </row>
     <row r="422" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B422" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C422" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="C422" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="D422" s="1" t="s">
         <v>11</v>
@@ -13783,13 +13763,13 @@
     </row>
     <row r="423" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B423" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C423" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="C423" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="D423" s="1" t="s">
         <v>11</v>
@@ -13812,13 +13792,13 @@
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D424" s="1" t="s">
         <v>11</v>
@@ -13841,13 +13821,13 @@
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B425" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C425" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="C425" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="D425" s="1" t="s">
         <v>22</v>
@@ -13870,13 +13850,13 @@
     </row>
     <row r="426" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B426" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C426" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="C426" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="D426" s="1" t="s">
         <v>11</v>
@@ -13899,13 +13879,13 @@
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B427" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C427" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="C427" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="D427" s="1" t="s">
         <v>11</v>
@@ -13928,13 +13908,13 @@
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B428" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C428" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="C428" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="D428" s="1" t="s">
         <v>11</v>
@@ -13957,13 +13937,13 @@
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B429" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C429" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="C429" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>11</v>
@@ -13986,13 +13966,13 @@
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B430" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C430" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="C430" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="D430" s="1" t="s">
         <v>11</v>
@@ -14015,13 +13995,13 @@
     </row>
     <row r="431" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B431" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C431" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="C431" s="1" t="s">
-        <v>442</v>
       </c>
       <c r="D431" s="1" t="s">
         <v>11</v>
@@ -14044,13 +14024,13 @@
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D432" s="1" t="s">
         <v>11</v>
@@ -14073,13 +14053,13 @@
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B433" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C433" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="C433" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="D433" s="1" t="s">
         <v>11</v>
@@ -14102,13 +14082,13 @@
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B434" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C434" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="C434" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>11</v>
@@ -14131,13 +14111,13 @@
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B435" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C435" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="C435" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="D435" s="1" t="s">
         <v>11</v>
@@ -14160,13 +14140,13 @@
     </row>
     <row r="436" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B436" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C436" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="C436" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="D436" s="1" t="s">
         <v>11</v>
@@ -14189,13 +14169,13 @@
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D437" s="1" t="s">
         <v>11</v>
@@ -14218,13 +14198,13 @@
     </row>
     <row r="438" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B438" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C438" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="C438" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="D438" s="1" t="s">
         <v>22</v>
@@ -14247,13 +14227,13 @@
     </row>
     <row r="439" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B439" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C439" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="C439" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="D439" s="1" t="s">
         <v>11</v>
@@ -14276,13 +14256,13 @@
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D440" s="1" t="s">
         <v>11</v>
@@ -14305,13 +14285,13 @@
     </row>
     <row r="441" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B441" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C441" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="C441" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="D441" s="1" t="s">
         <v>11</v>
@@ -14334,13 +14314,13 @@
     </row>
     <row r="442" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D442" s="1" t="s">
         <v>11</v>
@@ -14363,13 +14343,13 @@
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B443" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C443" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="C443" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="D443" s="1" t="s">
         <v>11</v>
@@ -14392,13 +14372,13 @@
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B444" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C444" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="C444" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="D444" s="1" t="s">
         <v>11</v>
@@ -14421,13 +14401,13 @@
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B445" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C445" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="C445" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="D445" s="1" t="s">
         <v>11</v>
@@ -14450,13 +14430,13 @@
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B446" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C446" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="C446" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="D446" s="1" t="s">
         <v>11</v>
@@ -14479,13 +14459,13 @@
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B447" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C447" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="C447" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="D447" s="1" t="s">
         <v>36</v>
@@ -14508,13 +14488,13 @@
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B448" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C448" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="C448" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="D448" s="1" t="s">
         <v>36</v>
@@ -14537,13 +14517,13 @@
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B449" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C449" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="C449" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="D449" s="1" t="s">
         <v>11</v>
@@ -14566,13 +14546,13 @@
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B450" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C450" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="D450" s="1" t="s">
         <v>11</v>
@@ -14595,13 +14575,13 @@
     </row>
     <row r="451" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B451" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C451" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="C451" s="1" t="s">
-        <v>468</v>
       </c>
       <c r="D451" s="1" t="s">
         <v>36</v>
@@ -14624,13 +14604,13 @@
     </row>
     <row r="452" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B452" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C452" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="C452" s="1" t="s">
-        <v>468</v>
       </c>
       <c r="D452" s="1" t="s">
         <v>11</v>
@@ -14653,13 +14633,13 @@
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D453" s="1" t="s">
         <v>11</v>
@@ -14682,13 +14662,13 @@
     </row>
     <row r="454" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B454" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C454" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="C454" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="D454" s="1" t="s">
         <v>11</v>
@@ -14711,13 +14691,13 @@
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D455" s="1" t="s">
         <v>11</v>
@@ -14740,13 +14720,13 @@
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B456" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C456" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="C456" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="D456" s="1" t="s">
         <v>11</v>
@@ -14769,13 +14749,13 @@
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B457" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C457" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="C457" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="D457" s="1" t="s">
         <v>36</v>
@@ -14798,13 +14778,13 @@
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B458" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C458" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="C458" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="D458" s="1" t="s">
         <v>11</v>
@@ -14827,13 +14807,13 @@
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B459" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C459" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="C459" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="D459" s="1" t="s">
         <v>11</v>
@@ -14856,13 +14836,13 @@
     </row>
     <row r="460" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B460" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C460" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="C460" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="D460" s="1" t="s">
         <v>17</v>
@@ -14885,13 +14865,13 @@
     </row>
     <row r="461" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B461" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C461" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="C461" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="D461" s="1" t="s">
         <v>17</v>
@@ -14914,13 +14894,13 @@
     </row>
     <row r="462" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B462" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C462" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="C462" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="D462" s="1" t="s">
         <v>36</v>
@@ -14943,13 +14923,13 @@
     </row>
     <row r="463" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B463" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C463" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="C463" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="D463" s="1" t="s">
         <v>11</v>
@@ -14972,13 +14952,13 @@
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D464" s="1" t="s">
         <v>17</v>
@@ -15001,13 +14981,13 @@
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B465" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C465" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="C465" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="D465" s="1" t="s">
         <v>11</v>
@@ -15030,13 +15010,13 @@
     </row>
     <row r="466" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B466" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C466" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="C466" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="D466" s="1" t="s">
         <v>11</v>
@@ -15059,13 +15039,13 @@
     </row>
     <row r="467" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B467" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C467" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="C467" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="D467" s="1" t="s">
         <v>11</v>
@@ -15088,13 +15068,13 @@
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B468" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C468" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="C468" s="1" t="s">
-        <v>487</v>
       </c>
       <c r="D468" s="1" t="s">
         <v>11</v>
@@ -15117,13 +15097,13 @@
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B469" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C469" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="C469" s="1" t="s">
-        <v>489</v>
       </c>
       <c r="D469" s="1" t="s">
         <v>11</v>
@@ -15146,13 +15126,13 @@
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B470" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C470" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="C470" s="1" t="s">
-        <v>489</v>
       </c>
       <c r="D470" s="1" t="s">
         <v>11</v>
@@ -15175,13 +15155,13 @@
     </row>
     <row r="471" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B471" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C471" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="C471" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="D471" s="1" t="s">
         <v>11</v>
@@ -15204,13 +15184,13 @@
     </row>
     <row r="472" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B472" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C472" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="C472" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>11</v>
@@ -15233,13 +15213,13 @@
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D473" s="1" t="s">
         <v>11</v>
@@ -15262,13 +15242,13 @@
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B474" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C474" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="C474" s="1" t="s">
-        <v>494</v>
       </c>
       <c r="D474" s="1" t="s">
         <v>11</v>
@@ -15291,13 +15271,13 @@
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B475" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C475" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="C475" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="D475" s="1" t="s">
         <v>11</v>
@@ -15320,13 +15300,13 @@
     </row>
     <row r="476" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B476" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C476" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="C476" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="D476" s="1" t="s">
         <v>11</v>
@@ -15349,13 +15329,13 @@
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D477" s="1" t="s">
         <v>11</v>
@@ -15378,13 +15358,13 @@
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B478" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C478" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="C478" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="D478" s="1" t="s">
         <v>36</v>
@@ -15407,13 +15387,13 @@
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B479" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C479" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="C479" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="D479" s="1" t="s">
         <v>11</v>
@@ -15436,13 +15416,13 @@
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B480" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C480" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="C480" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="D480" s="1" t="s">
         <v>11</v>
@@ -15465,13 +15445,13 @@
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B481" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C481" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="C481" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="D481" s="1" t="s">
         <v>11</v>
@@ -15494,13 +15474,13 @@
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B482" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C482" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="C482" s="1" t="s">
-        <v>507</v>
       </c>
       <c r="D482" s="1" t="s">
         <v>11</v>
@@ -15523,13 +15503,13 @@
     </row>
     <row r="483" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B483" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C483" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="C483" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="D483" s="1" t="s">
         <v>22</v>
@@ -15552,13 +15532,13 @@
     </row>
     <row r="484" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B484" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C484" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="C484" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="D484" s="1" t="s">
         <v>36</v>
@@ -15581,13 +15561,13 @@
     </row>
     <row r="485" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B485" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C485" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="C485" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="D485" s="1" t="s">
         <v>11</v>
@@ -15610,13 +15590,13 @@
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D486" s="1" t="s">
         <v>17</v>
@@ -15639,13 +15619,13 @@
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D487" s="1" t="s">
         <v>11</v>
@@ -15668,13 +15648,13 @@
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D488" s="1" t="s">
         <v>11</v>
@@ -15697,13 +15677,13 @@
     </row>
     <row r="489" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B489" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C489" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="C489" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="D489" s="1" t="s">
         <v>22</v>
@@ -15726,13 +15706,13 @@
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D490" s="1" t="s">
         <v>11</v>
@@ -15755,13 +15735,13 @@
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B491" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C491" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="C491" s="1" t="s">
-        <v>515</v>
       </c>
       <c r="D491" s="1" t="s">
         <v>11</v>
@@ -15784,13 +15764,13 @@
     </row>
     <row r="492" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B492" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C492" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="C492" s="1" t="s">
-        <v>517</v>
       </c>
       <c r="D492" s="1" t="s">
         <v>11</v>
@@ -15813,13 +15793,13 @@
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B493" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C493" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="C493" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="D493" s="1" t="s">
         <v>11</v>
@@ -15842,13 +15822,13 @@
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B494" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C494" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="C494" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="D494" s="1" t="s">
         <v>11</v>
@@ -15871,13 +15851,13 @@
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B495" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C495" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="C495" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="D495" s="1" t="s">
         <v>11</v>
@@ -15900,13 +15880,13 @@
     </row>
     <row r="496" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B496" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C496" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="C496" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="D496" s="1" t="s">
         <v>11</v>
@@ -15929,13 +15909,13 @@
     </row>
     <row r="497" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B497" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C497" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="C497" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="D497" s="1" t="s">
         <v>17</v>
@@ -15958,13 +15938,13 @@
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D498" s="1" t="s">
         <v>22</v>
@@ -15987,13 +15967,13 @@
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B499" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C499" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="C499" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="D499" s="1" t="s">
         <v>11</v>
@@ -16016,13 +15996,13 @@
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B500" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C500" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="C500" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="D500" s="1" t="s">
         <v>17</v>
@@ -16045,13 +16025,13 @@
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B501" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C501" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="C501" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="D501" s="1" t="s">
         <v>17</v>
@@ -16074,13 +16054,13 @@
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B502" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C502" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="C502" s="1" t="s">
-        <v>530</v>
       </c>
       <c r="D502" s="1" t="s">
         <v>11</v>
@@ -16103,13 +16083,13 @@
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B503" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C503" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="C503" s="1" t="s">
-        <v>532</v>
       </c>
       <c r="D503" s="1" t="s">
         <v>11</v>
@@ -16132,13 +16112,13 @@
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D504" s="1" t="s">
         <v>11</v>
@@ -16161,13 +16141,13 @@
     </row>
     <row r="505" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B505" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C505" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="C505" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="D505" s="1" t="s">
         <v>36</v>
@@ -16190,13 +16170,13 @@
     </row>
     <row r="506" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B506" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C506" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="C506" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="D506" s="1" t="s">
         <v>11</v>
@@ -16219,13 +16199,13 @@
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D507" s="1" t="s">
         <v>22</v>
@@ -16248,13 +16228,13 @@
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D508" s="1" t="s">
         <v>11</v>
@@ -16277,13 +16257,13 @@
     </row>
     <row r="509" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B509" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C509" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="C509" s="1" t="s">
-        <v>538</v>
       </c>
       <c r="D509" s="1" t="s">
         <v>11</v>
@@ -16306,13 +16286,13 @@
     </row>
     <row r="510" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B510" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="C510" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="C510" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="D510" s="1" t="s">
         <v>22</v>
@@ -16335,13 +16315,13 @@
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D511" s="1" t="s">
         <v>11</v>
@@ -16364,13 +16344,13 @@
     </row>
     <row r="512" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B512" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C512" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="C512" s="1" t="s">
-        <v>543</v>
       </c>
       <c r="D512" s="1" t="s">
         <v>11</v>
@@ -16393,13 +16373,13 @@
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D513" s="1" t="s">
         <v>11</v>
@@ -16422,13 +16402,13 @@
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B514" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C514" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="C514" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="D514" s="1" t="s">
         <v>11</v>
@@ -16451,13 +16431,13 @@
     </row>
     <row r="515" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B515" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C515" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="C515" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="D515" s="1" t="s">
         <v>17</v>
@@ -16480,13 +16460,13 @@
     </row>
     <row r="516" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B516" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C516" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="C516" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="D516" s="1" t="s">
         <v>11</v>
@@ -16509,13 +16489,13 @@
     </row>
     <row r="517" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B517" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C517" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="C517" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="D517" s="1" t="s">
         <v>11</v>
@@ -16538,13 +16518,13 @@
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D518" s="1" t="s">
         <v>36</v>
@@ -16567,13 +16547,13 @@
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B519" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C519" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="C519" s="1" t="s">
-        <v>551</v>
       </c>
       <c r="D519" s="1" t="s">
         <v>11</v>
@@ -16596,13 +16576,13 @@
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B520" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C520" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="C520" s="1" t="s">
-        <v>553</v>
       </c>
       <c r="D520" s="1" t="s">
         <v>11</v>
@@ -16625,13 +16605,13 @@
     </row>
     <row r="521" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B521" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C521" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="C521" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="D521" s="1" t="s">
         <v>11</v>
@@ -16654,13 +16634,13 @@
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B522" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C522" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="C522" s="1" t="s">
-        <v>557</v>
       </c>
       <c r="D522" s="1" t="s">
         <v>11</v>
@@ -16683,13 +16663,13 @@
     </row>
     <row r="523" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B523" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="C523" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="C523" s="1" t="s">
-        <v>559</v>
       </c>
       <c r="D523" s="1" t="s">
         <v>11</v>
@@ -16712,13 +16692,13 @@
     </row>
     <row r="524" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B524" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C524" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="C524" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="D524" s="1" t="s">
         <v>11</v>
@@ -16741,13 +16721,13 @@
     </row>
     <row r="525" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B525" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C525" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="C525" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="D525" s="1" t="s">
         <v>11</v>
@@ -16770,13 +16750,13 @@
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D526" s="1" t="s">
         <v>11</v>
@@ -16799,13 +16779,13 @@
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D527" s="1" t="s">
         <v>11</v>
@@ -16828,13 +16808,13 @@
     </row>
     <row r="528" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B528" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C528" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="C528" s="1" t="s">
-        <v>566</v>
       </c>
       <c r="D528" s="1" t="s">
         <v>11</v>
@@ -16857,13 +16837,13 @@
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B529" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C529" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="C529" s="1" t="s">
-        <v>568</v>
       </c>
       <c r="D529" s="1" t="s">
         <v>11</v>
@@ -16886,13 +16866,13 @@
     </row>
     <row r="530" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B530" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C530" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="C530" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="D530" s="1" t="s">
         <v>11</v>
@@ -16915,13 +16895,13 @@
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D531" s="1" t="s">
         <v>17</v>
@@ -16944,13 +16924,13 @@
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B532" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C532" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="C532" s="1" t="s">
-        <v>573</v>
       </c>
       <c r="D532" s="1" t="s">
         <v>11</v>
@@ -16973,13 +16953,13 @@
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B533" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C533" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="C533" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="D533" s="1" t="s">
         <v>11</v>
@@ -17002,13 +16982,13 @@
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B534" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C534" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="C534" s="1" t="s">
-        <v>577</v>
       </c>
       <c r="D534" s="1" t="s">
         <v>11</v>
@@ -17031,13 +17011,13 @@
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B535" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C535" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="C535" s="1" t="s">
-        <v>579</v>
       </c>
       <c r="D535" s="1" t="s">
         <v>11</v>
@@ -17060,13 +17040,13 @@
     </row>
     <row r="536" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B536" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C536" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="C536" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="D536" s="1" t="s">
         <v>11</v>
@@ -17089,10 +17069,10 @@
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C537" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="C537" s="1" t="s">
-        <v>583</v>
       </c>
       <c r="D537" s="1" t="s">
         <v>11</v>
@@ -17115,16 +17095,16 @@
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C538" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C538" s="1" t="s">
-        <v>585</v>
-      </c>
       <c r="D538" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E538" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="E538" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="F538" s="1" t="s">
         <v>40</v>
@@ -17141,16 +17121,16 @@
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C539" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C539" s="1" t="s">
-        <v>585</v>
-      </c>
       <c r="D539" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E539" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="E539" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="F539" s="1" t="s">
         <v>40</v>
@@ -17167,10 +17147,10 @@
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C540" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="C540" s="1" t="s">
-        <v>587</v>
       </c>
       <c r="D540" s="1" t="s">
         <v>36</v>
@@ -17193,10 +17173,10 @@
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C541" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="C541" s="1" t="s">
-        <v>587</v>
       </c>
       <c r="D541" s="1" t="s">
         <v>11</v>
@@ -17219,13 +17199,13 @@
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B542" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B542" s="1" t="s">
+      <c r="C542" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="C542" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="D542" s="1" t="s">
         <v>22</v>
@@ -17248,13 +17228,13 @@
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B543" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B543" s="1" t="s">
+      <c r="C543" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="C543" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="D543" s="1" t="s">
         <v>22</v>
@@ -17277,13 +17257,13 @@
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B544" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B544" s="1" t="s">
+      <c r="C544" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="C544" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="D544" s="1" t="s">
         <v>36</v>
@@ -17306,13 +17286,13 @@
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B545" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B545" s="1" t="s">
+      <c r="C545" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="C545" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="D545" s="1" t="s">
         <v>11</v>
@@ -17335,13 +17315,13 @@
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B546" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B546" s="1" t="s">
+      <c r="C546" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="C546" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="D546" s="1" t="s">
         <v>11</v>
@@ -17364,13 +17344,13 @@
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B547" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B547" s="1" t="s">
+      <c r="C547" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="C547" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="D547" s="1" t="s">
         <v>11</v>
@@ -17393,13 +17373,13 @@
     </row>
     <row r="548" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="B548" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B548" s="1" t="s">
+      <c r="C548" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="C548" s="1" t="s">
-        <v>593</v>
       </c>
       <c r="D548" s="1" t="s">
         <v>11</v>
@@ -17422,13 +17402,13 @@
     </row>
     <row r="549" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B549" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="B549" s="5" t="s">
+      <c r="C549" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="C549" s="1" t="s">
-        <v>596</v>
       </c>
       <c r="D549" s="1" t="s">
         <v>11</v>
@@ -17451,13 +17431,13 @@
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D550" s="1" t="s">
         <v>17</v>
@@ -17480,10 +17460,10 @@
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C551" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="C551" s="1" t="s">
-        <v>599</v>
       </c>
       <c r="D551" s="1" t="s">
         <v>11</v>
@@ -17506,10 +17486,10 @@
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C552" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="C552" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="D552" s="1" t="s">
         <v>17</v>
